--- a/Financials/ADYEN.xlsx
+++ b/Financials/ADYEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2BB243-B494-4449-B1BA-4C90CF060EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5CD3FB-5681-AF4B-84A1-C5C644241F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1951,9 +1951,9 @@
     <v>Powered by Refinitiv</v>
     <v>1596</v>
     <v>655.29999999999995</v>
-    <v>1.8986000000000001</v>
-    <v>-78.2</v>
-    <v>-5.6814999999999997E-2</v>
+    <v>1.8974</v>
+    <v>-40.6</v>
+    <v>-2.9496999999999999E-2</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>4233</v>
@@ -1961,24 +1961,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>1315</v>
+    <v>1344.4</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45603.479386574072</v>
+    <v>45603.708333333336</v>
     <v>0</v>
     <v>1201.2</v>
     <v>43326200000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
     <v>1222</v>
-    <v>51.736199999999997</v>
+    <v>50.210099999999997</v>
     <v>1376.4</v>
-    <v>1298.2</v>
+    <v>1335.8</v>
     <v>31477910</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>93821</v>
-    <v>52700</v>
+    <v>233998</v>
+    <v>58460</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2885,7 +2885,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>1298.2</v>
+        <v>1335.8</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>31</v>
@@ -2932,7 +2932,7 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-5.6814999999999997E-2</v>
+        <v>-2.9496999999999999E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>20</v>
@@ -3029,7 +3029,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.8986000000000001</v>
+        <v>1.8974</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>0.28023667840750321</v>
+        <v>0.24420067069068785</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>11</v>

--- a/Financials/ADYEN.xlsx
+++ b/Financials/ADYEN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5CD3FB-5681-AF4B-84A1-C5C644241F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24639679-594F-9149-9DA6-EB416AB9237E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1950,10 +1950,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1596</v>
-    <v>655.29999999999995</v>
-    <v>1.8974</v>
-    <v>-40.6</v>
-    <v>-2.9496999999999999E-2</v>
+    <v>940.8</v>
+    <v>1.9100999999999999</v>
+    <v>1</v>
+    <v>7.8380000000000008E-4</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>4233</v>
@@ -1961,24 +1961,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>1344.4</v>
+    <v>1284</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45603.708333333336</v>
+    <v>45610.708333333336</v>
     <v>0</v>
-    <v>1201.2</v>
-    <v>43326200000</v>
+    <v>1260.4000000000001</v>
+    <v>40159520000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>1222</v>
-    <v>50.210099999999997</v>
-    <v>1376.4</v>
-    <v>1335.8</v>
+    <v>1280.2</v>
+    <v>47.992400000000004</v>
+    <v>1275.8</v>
+    <v>1276.8</v>
     <v>31477910</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>233998</v>
-    <v>58460</v>
+    <v>64536</v>
+    <v>93460</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2885,14 +2885,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>1335.8</v>
+        <v>1276.8</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>21.761024610748368</v>
+        <v>20.170527373179308</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>23</v>
@@ -2932,14 +2932,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.9496999999999999E-2</v>
+        <v>7.8380000000000008E-4</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>47.826691687824265</v>
+        <v>44.331074069985647</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>22</v>
@@ -2980,14 +2980,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>43326200000</v>
+        <v>40159520000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>4.3345596890565059E-2</v>
+        <v>4.6763507133551395E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>21</v>
@@ -3029,7 +3029,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.8974</v>
+        <v>1.9100999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>0.24420067069068785</v>
+        <v>0.30169427937705273</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>11</v>
